--- a/allgather/allgather.xlsx
+++ b/allgather/allgather.xlsx
@@ -5,18 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnakao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnakao/Desktop/PEACH2-Benchmarks/allgather/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="3200" windowWidth="28100" windowHeight="21300"/>
+    <workbookView xWindow="1960" yWindow="2400" windowWidth="28100" windowHeight="21300"/>
   </bookViews>
   <sheets>
     <sheet name="16ノード" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1523,230 +1520,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="16ノード"/>
-      <sheetName val="32ノード"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>16</v>
-          </cell>
-          <cell r="B2">
-            <v>20.096302000000001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>32</v>
-          </cell>
-          <cell r="B3">
-            <v>14.224052</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>64</v>
-          </cell>
-          <cell r="B4">
-            <v>14.059544000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>128</v>
-          </cell>
-          <cell r="B5">
-            <v>14.178753</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>256</v>
-          </cell>
-          <cell r="B6">
-            <v>14.088153999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>512</v>
-          </cell>
-          <cell r="B7">
-            <v>17.907619</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1024</v>
-          </cell>
-          <cell r="B8">
-            <v>23.765564000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2048</v>
-          </cell>
-          <cell r="B9">
-            <v>34.167766999999998</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>4096</v>
-          </cell>
-          <cell r="B10">
-            <v>53.842067999999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>8192</v>
-          </cell>
-          <cell r="B11">
-            <v>97.815989999999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>16384</v>
-          </cell>
-          <cell r="B12">
-            <v>186.94877600000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>32768</v>
-          </cell>
-          <cell r="B13">
-            <v>363.34037799999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>65536</v>
-          </cell>
-          <cell r="B14">
-            <v>726.55677800000001</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>131072</v>
-          </cell>
-          <cell r="B15">
-            <v>1443.9320560000001</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>262144</v>
-          </cell>
-          <cell r="B16">
-            <v>2930.469513</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>524288</v>
-          </cell>
-          <cell r="B17">
-            <v>5745.1486590000004</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>16.589165000000001</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>14.131069</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>14.579295999999999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>15.361309</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>17.209053000000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>19.857883000000001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>44.760703999999997</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>66.151618999999997</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>93.328952999999998</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>144.879818</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>239.55822000000001</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>317.361355</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>416.59832</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>614.61925499999995</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>999.86076400000002</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>1788.9404300000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
